--- a/natmiOut/OldD0/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.68287882441169</v>
+        <v>7.727457666666666</v>
       </c>
       <c r="H2">
-        <v>1.68287882441169</v>
+        <v>23.182373</v>
       </c>
       <c r="I2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="J2">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.0705053786406</v>
+        <v>36.802266</v>
       </c>
       <c r="N2">
-        <v>34.0705053786406</v>
+        <v>110.406798</v>
       </c>
       <c r="O2">
-        <v>0.4216990501702313</v>
+        <v>0.4381152826760633</v>
       </c>
       <c r="P2">
-        <v>0.4216990501702313</v>
+        <v>0.4381152826760634</v>
       </c>
       <c r="Q2">
-        <v>57.33653203871884</v>
+        <v>284.3879525524059</v>
       </c>
       <c r="R2">
-        <v>57.33653203871884</v>
+        <v>2559.491572971654</v>
       </c>
       <c r="S2">
-        <v>0.01723663044573024</v>
+        <v>0.07142468383106965</v>
       </c>
       <c r="T2">
-        <v>0.01723663044573024</v>
+        <v>0.07142468383106965</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.68287882441169</v>
+        <v>7.727457666666666</v>
       </c>
       <c r="H3">
-        <v>1.68287882441169</v>
+        <v>23.182373</v>
       </c>
       <c r="I3">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="J3">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.6573858157817</v>
+        <v>34.02833166666667</v>
       </c>
       <c r="N3">
-        <v>33.6573858157817</v>
+        <v>102.084995</v>
       </c>
       <c r="O3">
-        <v>0.4165857674252811</v>
+        <v>0.4050927773614947</v>
       </c>
       <c r="P3">
-        <v>0.4165857674252811</v>
+        <v>0.4050927773614947</v>
       </c>
       <c r="Q3">
-        <v>56.6413018744334</v>
+        <v>262.9524924214594</v>
       </c>
       <c r="R3">
-        <v>56.6413018744334</v>
+        <v>2366.572431793134</v>
       </c>
       <c r="S3">
-        <v>0.01702762887220605</v>
+        <v>0.06604111906018076</v>
       </c>
       <c r="T3">
-        <v>0.01702762887220605</v>
+        <v>0.06604111906018074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.68287882441169</v>
+        <v>7.727457666666666</v>
       </c>
       <c r="H4">
-        <v>1.68287882441169</v>
+        <v>23.182373</v>
       </c>
       <c r="I4">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="J4">
-        <v>0.04087424536235536</v>
+        <v>0.1630271452636819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.0655214653573</v>
+        <v>13.17073133333333</v>
       </c>
       <c r="N4">
-        <v>13.0655214653573</v>
+        <v>39.512194</v>
       </c>
       <c r="O4">
-        <v>0.1617151824044877</v>
+        <v>0.156791939962442</v>
       </c>
       <c r="P4">
-        <v>0.1617151824044877</v>
+        <v>0.156791939962442</v>
       </c>
       <c r="Q4">
-        <v>21.98768940394619</v>
+        <v>101.7762688173735</v>
       </c>
       <c r="R4">
-        <v>21.98768940394619</v>
+        <v>915.9864193563619</v>
       </c>
       <c r="S4">
-        <v>0.006609986044419082</v>
+        <v>0.02556134237243152</v>
       </c>
       <c r="T4">
-        <v>0.006609986044419082</v>
+        <v>0.02556134237243152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.2898123310647</v>
+        <v>37.42779933333333</v>
       </c>
       <c r="H5">
-        <v>37.2898123310647</v>
+        <v>112.283398</v>
       </c>
       <c r="I5">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="J5">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.0705053786406</v>
+        <v>36.802266</v>
       </c>
       <c r="N5">
-        <v>34.0705053786406</v>
+        <v>110.406798</v>
       </c>
       <c r="O5">
-        <v>0.4216990501702313</v>
+        <v>0.4381152826760633</v>
       </c>
       <c r="P5">
-        <v>0.4216990501702313</v>
+        <v>0.4381152826760634</v>
       </c>
       <c r="Q5">
-        <v>1270.482751594038</v>
+        <v>1377.427826859956</v>
       </c>
       <c r="R5">
-        <v>1270.482751594038</v>
+        <v>12396.8504417396</v>
       </c>
       <c r="S5">
-        <v>0.3819352321851772</v>
+        <v>0.3459441447874279</v>
       </c>
       <c r="T5">
-        <v>0.3819352321851772</v>
+        <v>0.3459441447874279</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>37.2898123310647</v>
+        <v>37.42779933333333</v>
       </c>
       <c r="H6">
-        <v>37.2898123310647</v>
+        <v>112.283398</v>
       </c>
       <c r="I6">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="J6">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.6573858157817</v>
+        <v>34.02833166666667</v>
       </c>
       <c r="N6">
-        <v>33.6573858157817</v>
+        <v>102.084995</v>
       </c>
       <c r="O6">
-        <v>0.4165857674252811</v>
+        <v>0.4050927773614947</v>
       </c>
       <c r="P6">
-        <v>0.4165857674252811</v>
+        <v>0.4050927773614947</v>
       </c>
       <c r="Q6">
-        <v>1255.077600624739</v>
+        <v>1273.605569268112</v>
       </c>
       <c r="R6">
-        <v>1255.077600624739</v>
+        <v>11462.45012341301</v>
       </c>
       <c r="S6">
-        <v>0.3773041028723825</v>
+        <v>0.3198689476612106</v>
       </c>
       <c r="T6">
-        <v>0.3773041028723825</v>
+        <v>0.3198689476612105</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.2898123310647</v>
+        <v>37.42779933333333</v>
       </c>
       <c r="H7">
-        <v>37.2898123310647</v>
+        <v>112.283398</v>
       </c>
       <c r="I7">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264272</v>
       </c>
       <c r="J7">
-        <v>0.9057056970628643</v>
+        <v>0.7896189849264271</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.0655214653573</v>
+        <v>13.17073133333333</v>
       </c>
       <c r="N7">
-        <v>13.0655214653573</v>
+        <v>39.512194</v>
       </c>
       <c r="O7">
-        <v>0.1617151824044877</v>
+        <v>0.156791939962442</v>
       </c>
       <c r="P7">
-        <v>0.1617151824044877</v>
+        <v>0.156791939962442</v>
       </c>
       <c r="Q7">
-        <v>487.2108434506712</v>
+        <v>492.9514894172458</v>
       </c>
       <c r="R7">
-        <v>487.2108434506712</v>
+        <v>4436.563404755212</v>
       </c>
       <c r="S7">
-        <v>0.1464663620053048</v>
+        <v>0.1238058924777887</v>
       </c>
       <c r="T7">
-        <v>0.1464663620053048</v>
+        <v>0.1238058924777887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.19941635361047</v>
+        <v>2.244565</v>
       </c>
       <c r="H8">
-        <v>2.19941635361047</v>
+        <v>6.733695</v>
       </c>
       <c r="I8">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="J8">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.0705053786406</v>
+        <v>36.802266</v>
       </c>
       <c r="N8">
-        <v>34.0705053786406</v>
+        <v>110.406798</v>
       </c>
       <c r="O8">
-        <v>0.4216990501702313</v>
+        <v>0.4381152826760633</v>
       </c>
       <c r="P8">
-        <v>0.4216990501702313</v>
+        <v>0.4381152826760634</v>
       </c>
       <c r="Q8">
-        <v>74.93522670555561</v>
+        <v>82.60507818428999</v>
       </c>
       <c r="R8">
-        <v>74.93522670555561</v>
+        <v>743.44570365861</v>
       </c>
       <c r="S8">
-        <v>0.02252718753932399</v>
+        <v>0.02074645405756583</v>
       </c>
       <c r="T8">
-        <v>0.02252718753932399</v>
+        <v>0.02074645405756583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.19941635361047</v>
+        <v>2.244565</v>
       </c>
       <c r="H9">
-        <v>2.19941635361047</v>
+        <v>6.733695</v>
       </c>
       <c r="I9">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="J9">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.6573858157817</v>
+        <v>34.02833166666667</v>
       </c>
       <c r="N9">
-        <v>33.6573858157817</v>
+        <v>102.084995</v>
       </c>
       <c r="O9">
-        <v>0.4165857674252811</v>
+        <v>0.4050927773614947</v>
       </c>
       <c r="P9">
-        <v>0.4165857674252811</v>
+        <v>0.4050927773614947</v>
       </c>
       <c r="Q9">
-        <v>74.02660478300734</v>
+        <v>76.37880226739168</v>
       </c>
       <c r="R9">
-        <v>74.02660478300734</v>
+        <v>687.4092204065249</v>
       </c>
       <c r="S9">
-        <v>0.02225403568069261</v>
+        <v>0.01918271064010332</v>
       </c>
       <c r="T9">
-        <v>0.02225403568069261</v>
+        <v>0.01918271064010331</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.19941635361047</v>
+        <v>2.244565</v>
       </c>
       <c r="H10">
-        <v>2.19941635361047</v>
+        <v>6.733695</v>
       </c>
       <c r="I10">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989085</v>
       </c>
       <c r="J10">
-        <v>0.05342005757478045</v>
+        <v>0.04735386980989083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.0655214653573</v>
+        <v>13.17073133333333</v>
       </c>
       <c r="N10">
-        <v>13.0655214653573</v>
+        <v>39.512194</v>
       </c>
       <c r="O10">
-        <v>0.1617151824044877</v>
+        <v>0.156791939962442</v>
       </c>
       <c r="P10">
-        <v>0.1617151824044877</v>
+        <v>0.156791939962442</v>
       </c>
       <c r="Q10">
-        <v>28.73652157935548</v>
+        <v>29.56256257520334</v>
       </c>
       <c r="R10">
-        <v>28.73652157935548</v>
+        <v>266.06306317683</v>
       </c>
       <c r="S10">
-        <v>0.008638834354763853</v>
+        <v>0.007424705112221698</v>
       </c>
       <c r="T10">
-        <v>0.008638834354763853</v>
+        <v>0.007424705112221697</v>
       </c>
     </row>
   </sheetData>
